--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s1_P6_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1624.369005469433</v>
+        <v>452.2355072773721</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.08498387643545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.66848206849982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1176.789999999996</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>408.76</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,116 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -901,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -984,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11.89780720780175</v>
       </c>
     </row>
     <row r="4">
@@ -1016,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>10.94576542652248</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.71773803005367</v>
+        <v>22.71773803005368</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,216 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1404,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1415,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1426,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1437,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000002</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>160.05</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -1459,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>152.13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -1470,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>156.61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -1481,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>157.255</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1492,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -1503,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>164.6049999999995</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
@@ -1514,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>164.35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -1525,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>149.3149999999995</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -1536,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>160.8549999999995</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -1547,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>163.7349999999995</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1558,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -1569,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1580,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1591,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1602,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1613,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>83.55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1624,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>81.25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1635,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>81.31500000000037</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1646,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>84.61500000000036</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1657,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.01500000000037</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1668,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>160.05</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -1679,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>152.13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
@@ -1690,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>156.61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -1701,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.255</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
@@ -1712,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>159.49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
@@ -1723,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>164.6049999999995</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -1734,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>164.35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -1745,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>149.3149999999995</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -1756,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>160.8549999999995</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -1767,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>163.7349999999995</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -1778,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>75.89000000000051</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1789,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>75.69000000000051</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44">
@@ -1800,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>80.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
@@ -1811,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>80.25500000000051</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1822,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>75.56500000000051</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>60.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1880,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>52.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1891,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>56.60999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1902,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>57.255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1913,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>59.48999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1924,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>64.60499999999951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1935,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>64.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1946,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.31499999999949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1957,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>60.85499999999951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1968,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.7349999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2070,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2081,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2092,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2103,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2114,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2125,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2136,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2147,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2158,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2169,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2180,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2191,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2202,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2213,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2224,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2290,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.175</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2301,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>14.87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2312,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>16.95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2323,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2334,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>17.55</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2348,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2375,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2386,155 +2066,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
